--- a/EXCEL/my pratice/day12.xlsx
+++ b/EXCEL/my pratice/day12.xlsx
@@ -2,21 +2,45 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\my pratice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D25370-C297-4B5D-9FE6-4A2DB7B74942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC65E23B-B29D-49FD-8C02-93D33DBFA206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FFC5A16B-B93B-4BBE-842D-B069EA3B9C5D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{FFC5A16B-B93B-4BBE-842D-B069EA3B9C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="substitute&amp;rept&amp;replace" sheetId="1" r:id="rId1"/>
+    <sheet name="exact&amp;delta" sheetId="2" r:id="rId2"/>
+    <sheet name="SLICERS" sheetId="3" r:id="rId3"/>
+    <sheet name="pivot table slicer" sheetId="4" r:id="rId4"/>
+    <sheet name="large&amp;small" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Result">#N/A</definedName>
+    <definedName name="Slicer_Result1">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="19" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId8"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -34,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
   <si>
     <t>ALT H O R =&gt;TO RENAME THE SHEET NAME</t>
   </si>
@@ -109,13 +133,217 @@
   </si>
   <si>
     <t>TRIM USED TO MAKE PERFECT GAP BETWEEN TEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SUBSTITUTE(L15," ","")</t>
+  </si>
+  <si>
+    <t>removing all spaces</t>
+  </si>
+  <si>
+    <t>www:\\google.com\</t>
+  </si>
+  <si>
+    <t>how many slash(\)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =LEN(E18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =LEN(E20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =H20-H18</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =LEN(E20)-LEN(SUBSTITUTE(E20,"\",""))</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =B4=B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =EXACT(B4,B6)</t>
+  </si>
+  <si>
+    <t>WE USE EXACT FOR WORDS NOT FOR NUMBERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =B8=B10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =DELTA(B8,B10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =DELTA(B13,B15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =B13=B15</t>
+  </si>
+  <si>
+    <t>EXACT DELTA</t>
+  </si>
+  <si>
+    <t>WE USE FOR NUMBERS MATCHING</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Ram1</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Ram2</t>
+  </si>
+  <si>
+    <t>Ram3</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Ram4</t>
+  </si>
+  <si>
+    <t>Ram5</t>
+  </si>
+  <si>
+    <t>Ram6</t>
+  </si>
+  <si>
+    <t>Ram7</t>
+  </si>
+  <si>
+    <t>Ram8</t>
+  </si>
+  <si>
+    <t>Ram9</t>
+  </si>
+  <si>
+    <t>Ram10</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Disctinction</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>First class</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>0-34</t>
+  </si>
+  <si>
+    <t>35-59</t>
+  </si>
+  <si>
+    <t>60-74</t>
+  </si>
+  <si>
+    <t>&gt;=75</t>
+  </si>
+  <si>
+    <t>Disction</t>
+  </si>
+  <si>
+    <t>FORMAT TABLE FIRST FOR SELECTING SLICERS</t>
+  </si>
+  <si>
+    <t>SLICERS FOR FILTER PURPOSE ONLY</t>
+  </si>
+  <si>
+    <t>click slicer delete to delete slicer</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of Mark</t>
+  </si>
+  <si>
+    <t>first class</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>sales data</t>
+  </si>
+  <si>
+    <t>ascending</t>
+  </si>
+  <si>
+    <t>descending</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SMALL($C$3:$C$19,$G3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =LARGE($C$3:$C$19,$G3)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SMALL($C$3:$C$19,ROW(N2))</t>
+  </si>
+  <si>
+    <t>HERE WE USE ROW FORMULA TO AVIOD ADDITIONAL VALUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +359,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,8 +388,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor theme="8" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -154,19 +439,783 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="dd/mmm/yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="20" formatCode="dd/mmm/yy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -177,6 +1226,562 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Result">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AFB47A-565D-674B-87DB-A6826A4B6A96}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Result"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6301740" y="1280160"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can't be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Result 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0ACEB3-103B-D8FF-1E27-999BAD7F633D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Result 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6301740" y="1280160"/>
+              <a:ext cx="1828800" cy="2466975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prashant" refreshedDate="45769.502114699077" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="22" xr:uid="{AED404E7-D89B-4FB5-93A7-75B0CB5E78F0}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1001" maxValue="1010"/>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Ram1"/>
+        <s v="Ram2"/>
+        <s v="Ram4"/>
+        <s v="Ram5"/>
+        <s v="Ram7"/>
+        <s v="Ram8"/>
+        <s v="Ram10"/>
+        <s v="Ram3"/>
+        <s v="Ram9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Mark" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20" maxValue="98"/>
+    </cacheField>
+    <cacheField name="Result" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Pass"/>
+        <s v="Disctinction"/>
+        <s v="Fail"/>
+        <s v="first class"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="15">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-04-11T00:00:00" maxDate="2025-04-23T00:00:00" count="3">
+        <d v="2025-04-22T00:00:00"/>
+        <d v="2025-04-21T00:00:00"/>
+        <d v="2025-04-11T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1127749044"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="22">
+  <r>
+    <n v="1001"/>
+    <x v="0"/>
+    <n v="94"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <x v="1"/>
+    <n v="83"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <x v="2"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <x v="3"/>
+    <n v="39"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <x v="4"/>
+    <n v="97"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <x v="5"/>
+    <n v="78"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <x v="6"/>
+    <n v="20"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1001"/>
+    <x v="0"/>
+    <n v="93"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1002"/>
+    <x v="1"/>
+    <n v="96"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <x v="7"/>
+    <n v="71"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <x v="2"/>
+    <n v="34"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <x v="3"/>
+    <n v="94"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <x v="4"/>
+    <n v="98"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1008"/>
+    <x v="5"/>
+    <n v="54"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <x v="8"/>
+    <n v="59"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <x v="6"/>
+    <n v="48"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="1003"/>
+    <x v="7"/>
+    <n v="82"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1004"/>
+    <x v="2"/>
+    <n v="69"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1005"/>
+    <x v="3"/>
+    <n v="43"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1007"/>
+    <x v="4"/>
+    <n v="41"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1009"/>
+    <x v="8"/>
+    <n v="97"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1010"/>
+    <x v="6"/>
+    <n v="75"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8C4E5CB0-F2BE-429C-BB1A-E55A92C2F885}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="I9:S14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="15" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Mark" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Result1" xr10:uid="{DF842E57-4D06-4F3E-B554-C27FE768D532}" sourceName="Result">
+  <pivotTables>
+    <pivotTable tabId="4" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1127749044">
+      <items count="4">
+        <i x="1" s="1"/>
+        <i x="2"/>
+        <i x="3" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Result" xr10:uid="{DB53066B-C378-4CB6-9E74-B0F62FDCAD88}" sourceName="Result">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Result" xr10:uid="{602B15F0-DD9E-4970-91BE-3F7FA248A89F}" cache="Slicer_Result" caption="Result" rowHeight="234950"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Result 1" xr10:uid="{828FEE61-48C8-4E4B-877C-003B60853E36}" cache="Slicer_Result1" caption="Result" rowHeight="234950"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0BB3427-7CF5-4964-8A44-B92A6BF9C49F}" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:E31" xr:uid="{C0BB3427-7CF5-4964-8A44-B92A6BF9C49F}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Pass"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D9DADF3F-70AA-42D9-A327-3E030D805558}" name="ID" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{FCCCBB6F-9DEB-4648-B1F1-ECA647D46299}" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{92F50343-7FE0-49BF-BAB3-B27F9FDC6CFA}" name="Mark" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F18D59DA-DAF2-480C-83A1-15789F7135E2}" name="Result" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{3635F9E6-C793-4DD9-AEEE-A99A4B005DAF}" name="Date" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AB68700B-D3A3-4E4F-A90E-85D848E701CC}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:E23" xr:uid="{AB68700B-D3A3-4E4F-A90E-85D848E701CC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{9E8278D3-0A86-4C0E-B406-5F9E824093D2}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9CF7B8BA-4044-4C1B-9A1A-0C9246977C6A}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C4719846-5F38-4C6C-B0E3-31A1BCC58F87}" name="Mark" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{199B3B0D-6D67-485C-A30A-061187878A5B}" name="Result" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{3D4EC0C2-7119-4969-B6E5-AB6A790C9099}" name="Date" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,34 +2081,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47EA0E5-045E-4FC2-AEAA-DE41A3647343}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="22.21875" customWidth="1"/>
     <col min="7" max="7" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>7</v>
       </c>
@@ -511,7 +2117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -525,8 +2131,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K6" t="str">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K6" s="1" t="str">
         <f>REPT(K5,3)</f>
         <v xml:space="preserve">pra pra pra </v>
       </c>
@@ -534,8 +2140,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G7" t="str">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G7" s="1" t="str">
         <f>REPT(G5,2)</f>
         <v>newnew</v>
       </c>
@@ -543,7 +2149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D8" t="str">
         <f>SUBSTITUTE(D5,G5,I5)</f>
         <v>sample TEST data TEST</v>
@@ -552,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>5</v>
       </c>
@@ -563,19 +2169,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="K10" t="str">
+      <c r="K10" s="1" t="str">
         <f>REPLACE(D5,8,3,I5)</f>
         <v>sample TEST data new</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D12" t="str">
         <f>SUBSTITUTE(D5,G5,I5,1)</f>
         <v>sample TEST data new</v>
@@ -588,7 +2196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -596,7 +2204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
@@ -607,17 +2215,27 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P14" s="1" t="str">
+        <f>SUBSTITUTE(L15," ","")</f>
+        <v>oldtext</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L16" t="str">
+      <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L16" s="1" t="str">
         <f>TRIM(L15)</f>
         <v>old text</v>
       </c>
@@ -625,12 +2243,2080 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="K17" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" t="str">
+        <f>SUBSTITUTE(E20,"\","")</f>
+        <v>www:google.com</v>
+      </c>
+      <c r="H18" s="1">
+        <f>LEN(E18)</f>
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1">
+        <f>LEN(E20)</f>
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="1">
+        <f>H20-H18</f>
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <f>LEN(E20)-LEN(SUBSTITUTE(E20,"\",""))</f>
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65063C4C-A715-475A-922A-A2D310A305C1}">
+  <dimension ref="B1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="b">
+        <f>B4=B6</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <f>EXACT(B4,B6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>12.343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="b">
+        <f>B8=B10</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <f>DELTA(B8,B10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>12.343</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>12.34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="b">
+        <f>B13=B15</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <f>DELTA(B13,B15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>12.343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2E10B9-1147-4F87-B55B-C19375C34EDB}">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="25">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="4">
+        <v>94</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="26">
+        <f ca="1">TODAY()</f>
+        <v>45769</v>
+      </c>
+      <c r="H2" s="16">
+        <v>1001</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="20">
+        <v>100</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4">
+        <v>83</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="26">
+        <f t="shared" ref="E3:E11" ca="1" si="0">TODAY()</f>
+        <v>45769</v>
+      </c>
+      <c r="H3" s="17">
+        <v>1002</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="7">
+        <v>55</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45769</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1003</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="15">
+        <v>66</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="25">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="4">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45769</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1004</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="19">
+        <v>10</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45769</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1005</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="7">
+        <v>23</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45769</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1006</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="7">
+        <v>33</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4">
+        <v>97</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45769</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1007</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="7">
+        <v>63</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="4">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45769</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1008</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="15">
+        <v>70</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45769</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1009</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="7">
+        <v>21</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" ca="1" si="0"/>
+        <v>45769</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1010</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="9">
+        <v>85</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4">
+        <v>93</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="27">
+        <f ca="1">E2-1</f>
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
+        <v>1002</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4">
+        <v>96</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" ref="E13:E21" ca="1" si="1">E3-1</f>
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>1003</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4">
+        <v>71</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>1004</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45768</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
+        <v>1005</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="4">
+        <v>94</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45768</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>1006</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="4">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45768</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
+        <v>1007</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45768</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
+        <v>1008</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4">
+        <v>54</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
+        <v>1009</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4">
+        <v>59</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="25">
+        <v>1010</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25">
+        <v>1001</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4">
+        <v>24</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="26">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
+        <v>1002</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="26">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="25">
+        <v>1003</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="4">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="26">
+        <v>45758</v>
+      </c>
+      <c r="G24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="25">
+        <v>1004</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4">
+        <v>69</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="26">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
+        <v>1005</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="26">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="25">
+        <v>1006</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="4">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="26">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
+        <v>1007</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="4">
+        <v>41</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="26">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25">
+        <v>1008</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4">
+        <v>25</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="26">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="25">
+        <v>1009</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="4">
+        <v>97</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="26">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="28">
+        <v>1010</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="30">
+        <v>75</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="31">
+        <v>45758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2F37C4-A2B1-453A-B047-090953A9251E}">
+  <dimension ref="A1:S23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="39">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="36">
+        <v>94</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="41">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="40">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="38">
+        <v>83</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="42">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="39">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="36">
+        <v>41</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="41">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="40">
+        <v>1005</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="38">
+        <v>39</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="42">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="39">
+        <v>1007</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="36">
+        <v>97</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="41">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="40">
+        <v>1008</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="38">
+        <v>78</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="42">
+        <v>45769</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="39">
+        <v>1010</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="36">
+        <v>20</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="41">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="40">
+        <v>1001</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="38">
+        <v>93</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="43">
+        <v>45768</v>
+      </c>
+      <c r="I9" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>1002</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="36">
+        <v>96</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="43">
+        <v>45768</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>1003</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="38">
+        <v>71</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="43">
+        <v>45768</v>
+      </c>
+      <c r="I11" s="50">
+        <v>45758</v>
+      </c>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48">
+        <v>75</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48">
+        <v>82</v>
+      </c>
+      <c r="N11" s="48">
+        <v>69</v>
+      </c>
+      <c r="O11" s="48">
+        <v>43</v>
+      </c>
+      <c r="P11" s="48">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48">
+        <v>97</v>
+      </c>
+      <c r="S11" s="48">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>1004</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="36">
+        <v>34</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="43">
+        <v>45768</v>
+      </c>
+      <c r="I12" s="50">
+        <v>45768</v>
+      </c>
+      <c r="J12" s="48">
+        <v>93</v>
+      </c>
+      <c r="K12" s="48">
+        <v>48</v>
+      </c>
+      <c r="L12" s="48">
+        <v>96</v>
+      </c>
+      <c r="M12" s="48">
+        <v>71</v>
+      </c>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48">
+        <v>94</v>
+      </c>
+      <c r="P12" s="48">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="48">
+        <v>54</v>
+      </c>
+      <c r="R12" s="48">
+        <v>59</v>
+      </c>
+      <c r="S12" s="48">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="40">
+        <v>1005</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="38">
+        <v>94</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="43">
+        <v>45768</v>
+      </c>
+      <c r="I13" s="50">
+        <v>45769</v>
+      </c>
+      <c r="J13" s="48">
+        <v>94</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48">
+        <v>83</v>
+      </c>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48">
+        <v>41</v>
+      </c>
+      <c r="O13" s="48">
+        <v>39</v>
+      </c>
+      <c r="P13" s="48">
+        <v>97</v>
+      </c>
+      <c r="Q13" s="48">
+        <v>78</v>
+      </c>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="39">
+        <v>1007</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="36">
+        <v>98</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="43">
+        <v>45768</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="48">
+        <v>187</v>
+      </c>
+      <c r="K14" s="48">
+        <v>123</v>
+      </c>
+      <c r="L14" s="48">
+        <v>179</v>
+      </c>
+      <c r="M14" s="48">
+        <v>153</v>
+      </c>
+      <c r="N14" s="48">
+        <v>110</v>
+      </c>
+      <c r="O14" s="48">
+        <v>176</v>
+      </c>
+      <c r="P14" s="48">
+        <v>236</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>132</v>
+      </c>
+      <c r="R14" s="48">
+        <v>156</v>
+      </c>
+      <c r="S14" s="48">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>1008</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="38">
+        <v>54</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="43">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="39">
+        <v>1009</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="36">
+        <v>59</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="43">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="40">
+        <v>1010</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="38">
+        <v>48</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="43">
+        <v>45768</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="39">
+        <v>1003</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="36">
+        <v>82</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="41">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="40">
+        <v>1004</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="38">
+        <v>69</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="42">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="39">
+        <v>1005</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="36">
+        <v>43</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="41">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="40">
+        <v>1007</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="38">
+        <v>41</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="42">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="39">
+        <v>1009</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="36">
+        <v>97</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="41">
+        <v>45758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="44">
+        <v>1010</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="46">
+        <v>75</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="47">
+        <v>45758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09532B2-A512-4D84-8300-50498C44CC65}">
+  <dimension ref="A1:Q20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="H2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C3" s="21">
+        <v>13</v>
+      </c>
+      <c r="E3" s="21">
+        <v>4</v>
+      </c>
+      <c r="G3" s="51">
+        <v>1</v>
+      </c>
+      <c r="I3" s="52">
+        <f>SMALL($C$3:$C$19,$G3)</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="53">
+        <f>LARGE($C$3:$C$19,$G3)</f>
+        <v>100</v>
+      </c>
+      <c r="N3" s="5">
+        <f>SMALL($C$3:$C$19,ROW(N1))</f>
+        <v>4</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C4" s="21">
+        <v>54</v>
+      </c>
+      <c r="E4" s="21">
+        <v>5</v>
+      </c>
+      <c r="G4" s="51">
+        <v>2</v>
+      </c>
+      <c r="I4" s="52">
+        <f t="shared" ref="I4:I19" si="0">SMALL($C$3:$C$19,$G4)</f>
+        <v>5</v>
+      </c>
+      <c r="K4" s="53">
+        <f t="shared" ref="K4:K19" si="1">LARGE($C$3:$C$19,$G4)</f>
+        <v>98</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" ref="N4:N19" si="2">SMALL($C$3:$C$19,ROW(N2))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C5" s="21">
+        <v>22</v>
+      </c>
+      <c r="E5" s="21">
+        <v>13</v>
+      </c>
+      <c r="G5" s="51">
+        <v>3</v>
+      </c>
+      <c r="I5" s="52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="K5" s="53">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C6" s="21">
+        <v>43</v>
+      </c>
+      <c r="E6" s="21">
+        <v>22</v>
+      </c>
+      <c r="G6" s="51">
+        <v>4</v>
+      </c>
+      <c r="I6" s="52">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="K6" s="53">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C7" s="21">
+        <v>44</v>
+      </c>
+      <c r="E7" s="21">
+        <v>27</v>
+      </c>
+      <c r="G7" s="51">
+        <v>5</v>
+      </c>
+      <c r="I7" s="52">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K7" s="53">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C8" s="21">
+        <v>57</v>
+      </c>
+      <c r="E8" s="21">
+        <v>34</v>
+      </c>
+      <c r="G8" s="51">
+        <v>6</v>
+      </c>
+      <c r="I8" s="52">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K8" s="53">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="21">
+        <v>5</v>
+      </c>
+      <c r="E9" s="21">
+        <v>43</v>
+      </c>
+      <c r="G9" s="51">
+        <v>7</v>
+      </c>
+      <c r="I9" s="52">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="K9" s="53">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="21">
+        <v>77</v>
+      </c>
+      <c r="E10" s="21">
+        <v>44</v>
+      </c>
+      <c r="G10" s="51">
+        <v>8</v>
+      </c>
+      <c r="I10" s="52">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K10" s="53">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="21">
+        <v>78</v>
+      </c>
+      <c r="E11" s="21">
+        <v>44</v>
+      </c>
+      <c r="G11" s="51">
+        <v>9</v>
+      </c>
+      <c r="I11" s="52">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K11" s="53">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="N11" s="5">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C12" s="21">
+        <v>4</v>
+      </c>
+      <c r="E12" s="21">
+        <v>54</v>
+      </c>
+      <c r="G12" s="51">
+        <v>10</v>
+      </c>
+      <c r="I12" s="52">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="K12" s="53">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="21">
+        <v>76</v>
+      </c>
+      <c r="E13" s="21">
+        <v>57</v>
+      </c>
+      <c r="G13" s="51">
+        <v>11</v>
+      </c>
+      <c r="I13" s="52">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="K13" s="53">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="21">
+        <v>98</v>
+      </c>
+      <c r="E14" s="21">
+        <v>76</v>
+      </c>
+      <c r="G14" s="51">
+        <v>12</v>
+      </c>
+      <c r="I14" s="52">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="K14" s="53">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="21">
+        <v>100</v>
+      </c>
+      <c r="E15" s="21">
+        <v>77</v>
+      </c>
+      <c r="G15" s="51">
+        <v>13</v>
+      </c>
+      <c r="I15" s="52">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="K15" s="53">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="N15" s="5">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="21">
+        <v>91</v>
+      </c>
+      <c r="E16" s="21">
+        <v>78</v>
+      </c>
+      <c r="G16" s="51">
+        <v>14</v>
+      </c>
+      <c r="I16" s="52">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="K16" s="53">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C17" s="21">
+        <v>27</v>
+      </c>
+      <c r="E17" s="21">
+        <v>91</v>
+      </c>
+      <c r="G17" s="51">
+        <v>15</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="K17" s="53">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C18" s="21">
+        <v>44</v>
+      </c>
+      <c r="E18" s="21">
+        <v>98</v>
+      </c>
+      <c r="G18" s="51">
+        <v>16</v>
+      </c>
+      <c r="I18" s="52">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="K18" s="53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C19" s="21">
+        <v>34</v>
+      </c>
+      <c r="E19" s="21">
+        <v>100</v>
+      </c>
+      <c r="G19" s="51">
+        <v>17</v>
+      </c>
+      <c r="I19" s="52">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K19" s="53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E19">
+    <sortCondition ref="E3:E19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>